--- a/Outputdateien/Balingen/3 Haltestellen/Vergleich Betriebstag.xlsx
+++ b/Outputdateien/Balingen/3 Haltestellen/Vergleich Betriebstag.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Outputdateien\Balingen\3 Haltestellen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE120C-3929-485D-97D1-A8DB5158A10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,247 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>ohne Zwischenladung</t>
+  </si>
+  <si>
+    <t>Ladehaltestellen</t>
+  </si>
+  <si>
+    <t>Uhrzeit zu Beginn</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:16</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>08:36</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>08:56</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:16</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>09:36</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>09:56</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>11:36</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>11:56</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:16</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>12:36</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>12:56</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:16</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>13:36</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>14:56</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:16</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>15:36</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>15:56</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:16</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:16</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>17:36</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>17:56</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:16</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>18:36</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>18:56</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>19:16</t>
+  </si>
+  <si>
+    <t>19:20</t>
+  </si>
+  <si>
+    <t>19:36</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>19:56</t>
+  </si>
+  <si>
+    <t>Ladepausen zwischen den Umläufen</t>
+  </si>
+  <si>
+    <t>4 zusätzliche DWPT-Abschnitte an Kreuzungen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +294,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +315,2755 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ohne Zwischenladung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$2:$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>08:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08:16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08:20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>08:36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08:40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08:56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>09:16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09:20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09:36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>09:40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>09:56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10:16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10:20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10:36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10:40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10:56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11:16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11:20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11:36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11:40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11:56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12:16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12:20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12:36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12:40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12:56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13:16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13:20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13:36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13:40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13:56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14:16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14:20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14:36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14:40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15:16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15:20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15:36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15:40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15:56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16:16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16:20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16:36</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16:40</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16:56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17:16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17:20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17:36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17:40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17:56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18:16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18:20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18:36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18:40</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18:56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19:16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19:20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19:36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19:40</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19:56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>###,##0</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.053044339696996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.753280110529488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.806324450227422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.508051585386184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.561095925090044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.26282306024882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.31586739995268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.017594535111456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.070638874815316</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.772366009974078</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.825410349677952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.527137484836715</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.580181824540574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.281908959699351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.33495329940321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.036680434561973</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.089724774265839</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.791451909424609</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.844496249128483</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.546223384287252</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.599267723991098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.300994859149867</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.354039198853741</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.05576633401251</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45.108810673715752</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44.810537808873491</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.86358214857384</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.56530928373158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.618353623431929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.320080758589668</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.373125098290018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.074852233447757</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.12789657314811</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.829623708305849</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.882668048006199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.584395183163931</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.637439522864781</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.339166658022521</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.392210997723449</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.09393813288119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.146982472582099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.84870960773984</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.9017539474404836</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.6034810825982238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.6565254222992039</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3582525574570719</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0006340812372701E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.1860459763398345E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9573662382405588E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.859261676668714E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.030528870324053E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.1755248850181135E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9965767162144519E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.7803094740579736E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9533088732177399E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4535251743868531E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.026471505301234E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.7697883827362526E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.992519351191633E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3745729717761127E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.949251508194922E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.047788672104993E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0224141402784161E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.3640518804543916E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9884619861688151E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9688364694942528E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9451941431721031E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.4205216982313206E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0183567752555968E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.9583153781725307E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9844046211459961E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C18D-458D-B256-663DCD0C10BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ladepausen zwischen den Umläufen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$2:$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>08:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08:16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08:20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>08:36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08:40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08:56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>09:16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09:20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09:36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>09:40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>09:56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10:16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10:20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10:36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10:40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10:56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11:16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11:20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11:36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11:40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11:56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12:16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12:20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12:36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12:40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12:56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13:16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13:20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13:36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13:40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13:56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14:16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14:20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14:36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14:40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15:16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15:20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15:36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15:40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15:56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16:16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16:20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16:36</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16:40</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16:56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17:16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17:20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17:36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17:40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17:56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18:16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18:20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18:36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18:40</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18:56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19:16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19:20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19:36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19:40</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19:56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>###,##0</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.053044339696996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.007005916680043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.060050256377039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.009265755862657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.062310095563944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.011525595051637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.064569934755497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.013785434243175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.066829773947049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.016045273434727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.069089613138587</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.01830511262628</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.071349452330139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.020564951817832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.073609291521691</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.022824791009384</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.075869130713244</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.025084630200936</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.078128969904796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.027344469392474</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.080388809096348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.029604308584027</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.082648648287893</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.031864147775579</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.084908487479439</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.034123986967117</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.087168326670991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.036383826158684</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.089428165862543</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.038643665350229</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.091688005054102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52.040903504541767</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.093947844245641</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.043163343733333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.09620768343656</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.045423182923223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.098467522623572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43.04768302211022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.10072736181057</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.049942861297232</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.102987200997568</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.05220270048423</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.10524704018458</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.054462539671242</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.107506879371591</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.05672237885825</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.1097667185586</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.058982218045251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.112026557745601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.06124205723226</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.114286396932901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.063501896419549</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.116546236120492</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.06576173560715</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.118806075308081</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.068021574794731</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.12106591449567</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.070281413982331</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1233257536830905</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.07254125317001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1255855928706531</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.0748010923575659</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1278454320585092</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0770609315452937</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.130105271246341</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.07932077073315</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.023766555730213E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.96945316504410994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9631230773570311E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.96884673026037815</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9117952878709672E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C18D-458D-B256-663DCD0C10BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ladehaltestellen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$2:$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>08:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08:16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08:20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>08:36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08:40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08:56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>09:16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09:20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09:36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>09:40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>09:56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10:16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10:20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10:36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10:40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10:56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11:16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11:20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11:36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11:40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11:56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12:16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12:20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12:36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12:40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12:56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13:16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13:20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13:36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13:40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13:56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14:16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14:20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14:36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14:40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15:16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15:20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15:36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15:40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15:56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16:16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16:20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16:36</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16:40</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16:56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17:16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17:20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17:36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17:40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17:56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18:16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18:20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18:36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18:40</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18:56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19:16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19:20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19:36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19:40</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19:56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>###,##0</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.165170007140873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.11913158412392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.284301591264793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.233517090750411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.398687097891283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.347902597376915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.513072604517774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.462288104003406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.627458111144264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.576673610629896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.741843617770755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.691059117256387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.85622912439726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.805444623882877</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.970614631027601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.919830130514583</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.085000137662206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.034215637149899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.199385644297664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.148601143785356</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.313771150933135</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.2629866504208</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88.428156657568579</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.377372157056271</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.542542164204036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88.491757663691729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.656927670839508</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87.606143170327186</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.771313177474966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.720528676962644</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.885698684110409</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.834914183598102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84.000084190745866</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.949299690233559</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83.114469697381338</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84.063685196869017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.228855204016796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83.178070703504474</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.343240710652239</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82.292456210139932</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80.457626217287697</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81.406841716775389</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79.572011723923168</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80.521227223410847</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78.686397230558612</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>79.635612730046304</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>77.800782737194069</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.749998236681762</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>76.915168243829541</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>77.864383743317219</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76.029553750464999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76.978769249952677</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75.143939257100442</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76.093154756588135</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74.258324763735899</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>75.207540263223592</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>73.372710270371371</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>74.32192576985905</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>72.487095777006829</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>73.436311276494507</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.601481283642272</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72.550696783129965</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70.715866790277744</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71.665082289765422</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.830252296913201</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>70.77946779640088</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.944637803548659</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.893853303036337</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>68.059023310184102</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>69.008238809671795</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>67.173408816819574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C18D-458D-B256-663DCD0C10BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 zusätzliche DWPT-Abschnitte an Kreuzungen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$2:$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>08:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08:16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08:20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>08:36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08:40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08:56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>09:16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09:20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09:36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>09:40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>09:56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10:16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10:20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10:36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10:40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10:56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11:16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11:20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11:36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11:40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11:56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12:16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12:20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12:36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12:40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12:56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13:16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13:20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13:36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13:40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13:56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14:16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14:20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14:36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14:40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15:16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15:20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15:36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15:40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15:56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16:16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16:20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16:36</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16:40</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16:56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17:16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17:20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17:36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17:40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17:56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18:16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18:20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18:36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18:40</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18:56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19:16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19:20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19:36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19:40</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19:56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>###,##0</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.986020650264024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>99.981274572766594</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>99.032059073280962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C18D-458D-B256-663DCD0C10BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="316455488"/>
+        <c:axId val="316451224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="316455488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316451224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="3"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316451224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="###,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316455488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>134302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D081FD-368E-43C5-A36C-47DB7FFF8BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3328,1261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="20.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>96.053044339696996</v>
+      </c>
+      <c r="C3" s="2">
+        <v>96.053044339696996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>98.165170007140873</v>
+      </c>
+      <c r="E3" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>95.753280110529488</v>
+      </c>
+      <c r="C4" s="2">
+        <v>97.007005916680043</v>
+      </c>
+      <c r="D4" s="2">
+        <v>99.11913158412392</v>
+      </c>
+      <c r="E4" s="2">
+        <v>99.986020650264024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>91.806324450227422</v>
+      </c>
+      <c r="C5" s="2">
+        <v>93.060050256377039</v>
+      </c>
+      <c r="D5" s="2">
+        <v>97.284301591264793</v>
+      </c>
+      <c r="E5" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>91.508051585386184</v>
+      </c>
+      <c r="C6" s="2">
+        <v>94.009265755862657</v>
+      </c>
+      <c r="D6" s="2">
+        <v>98.233517090750411</v>
+      </c>
+      <c r="E6" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>87.561095925090044</v>
+      </c>
+      <c r="C7" s="2">
+        <v>90.062310095563944</v>
+      </c>
+      <c r="D7" s="2">
+        <v>96.398687097891283</v>
+      </c>
+      <c r="E7" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>87.26282306024882</v>
+      </c>
+      <c r="C8" s="2">
+        <v>91.011525595051637</v>
+      </c>
+      <c r="D8" s="2">
+        <v>97.347902597376915</v>
+      </c>
+      <c r="E8" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>83.31586739995268</v>
+      </c>
+      <c r="C9" s="2">
+        <v>87.064569934755497</v>
+      </c>
+      <c r="D9" s="2">
+        <v>95.513072604517774</v>
+      </c>
+      <c r="E9" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>83.017594535111456</v>
+      </c>
+      <c r="C10" s="2">
+        <v>88.013785434243175</v>
+      </c>
+      <c r="D10" s="2">
+        <v>96.462288104003406</v>
+      </c>
+      <c r="E10" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>79.070638874815316</v>
+      </c>
+      <c r="C11" s="2">
+        <v>84.066829773947049</v>
+      </c>
+      <c r="D11" s="2">
+        <v>94.627458111144264</v>
+      </c>
+      <c r="E11" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>78.772366009974078</v>
+      </c>
+      <c r="C12" s="2">
+        <v>85.016045273434727</v>
+      </c>
+      <c r="D12" s="2">
+        <v>95.576673610629896</v>
+      </c>
+      <c r="E12" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>74.825410349677952</v>
+      </c>
+      <c r="C13" s="2">
+        <v>81.069089613138587</v>
+      </c>
+      <c r="D13" s="2">
+        <v>93.741843617770755</v>
+      </c>
+      <c r="E13" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>74.527137484836715</v>
+      </c>
+      <c r="C14" s="2">
+        <v>82.01830511262628</v>
+      </c>
+      <c r="D14" s="2">
+        <v>94.691059117256387</v>
+      </c>
+      <c r="E14" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>70.580181824540574</v>
+      </c>
+      <c r="C15" s="2">
+        <v>78.071349452330139</v>
+      </c>
+      <c r="D15" s="2">
+        <v>92.85622912439726</v>
+      </c>
+      <c r="E15" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>70.281908959699351</v>
+      </c>
+      <c r="C16" s="2">
+        <v>79.020564951817832</v>
+      </c>
+      <c r="D16" s="2">
+        <v>93.805444623882877</v>
+      </c>
+      <c r="E16" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>66.33495329940321</v>
+      </c>
+      <c r="C17" s="2">
+        <v>75.073609291521691</v>
+      </c>
+      <c r="D17" s="2">
+        <v>91.970614631027601</v>
+      </c>
+      <c r="E17" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>66.036680434561973</v>
+      </c>
+      <c r="C18" s="2">
+        <v>76.022824791009384</v>
+      </c>
+      <c r="D18" s="2">
+        <v>92.919830130514583</v>
+      </c>
+      <c r="E18" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>62.089724774265839</v>
+      </c>
+      <c r="C19" s="2">
+        <v>72.075869130713244</v>
+      </c>
+      <c r="D19" s="2">
+        <v>91.085000137662206</v>
+      </c>
+      <c r="E19" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>61.791451909424609</v>
+      </c>
+      <c r="C20" s="2">
+        <v>73.025084630200936</v>
+      </c>
+      <c r="D20" s="2">
+        <v>92.034215637149899</v>
+      </c>
+      <c r="E20" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>57.844496249128483</v>
+      </c>
+      <c r="C21" s="2">
+        <v>69.078128969904796</v>
+      </c>
+      <c r="D21" s="2">
+        <v>90.199385644297664</v>
+      </c>
+      <c r="E21" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>57.546223384287252</v>
+      </c>
+      <c r="C22" s="2">
+        <v>70.027344469392474</v>
+      </c>
+      <c r="D22" s="2">
+        <v>91.148601143785356</v>
+      </c>
+      <c r="E22" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>53.599267723991098</v>
+      </c>
+      <c r="C23" s="2">
+        <v>66.080388809096348</v>
+      </c>
+      <c r="D23" s="2">
+        <v>89.313771150933135</v>
+      </c>
+      <c r="E23" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>53.300994859149867</v>
+      </c>
+      <c r="C24" s="2">
+        <v>67.029604308584027</v>
+      </c>
+      <c r="D24" s="2">
+        <v>90.2629866504208</v>
+      </c>
+      <c r="E24" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>49.354039198853741</v>
+      </c>
+      <c r="C25" s="2">
+        <v>63.082648648287893</v>
+      </c>
+      <c r="D25" s="2">
+        <v>88.428156657568579</v>
+      </c>
+      <c r="E25" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>49.05576633401251</v>
+      </c>
+      <c r="C26" s="2">
+        <v>64.031864147775579</v>
+      </c>
+      <c r="D26" s="2">
+        <v>89.377372157056271</v>
+      </c>
+      <c r="E26" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45.108810673715752</v>
+      </c>
+      <c r="C27" s="2">
+        <v>60.084908487479439</v>
+      </c>
+      <c r="D27" s="2">
+        <v>87.542542164204036</v>
+      </c>
+      <c r="E27" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44.810537808873491</v>
+      </c>
+      <c r="C28" s="2">
+        <v>61.034123986967117</v>
+      </c>
+      <c r="D28" s="2">
+        <v>88.491757663691729</v>
+      </c>
+      <c r="E28" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40.86358214857384</v>
+      </c>
+      <c r="C29" s="2">
+        <v>57.087168326670991</v>
+      </c>
+      <c r="D29" s="2">
+        <v>86.656927670839508</v>
+      </c>
+      <c r="E29" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>40.56530928373158</v>
+      </c>
+      <c r="C30" s="2">
+        <v>58.036383826158684</v>
+      </c>
+      <c r="D30" s="2">
+        <v>87.606143170327186</v>
+      </c>
+      <c r="E30" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <v>36.618353623431929</v>
+      </c>
+      <c r="C31" s="2">
+        <v>54.089428165862543</v>
+      </c>
+      <c r="D31" s="2">
+        <v>85.771313177474966</v>
+      </c>
+      <c r="E31" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2">
+        <v>36.320080758589668</v>
+      </c>
+      <c r="C32" s="2">
+        <v>55.038643665350229</v>
+      </c>
+      <c r="D32" s="2">
+        <v>86.720528676962644</v>
+      </c>
+      <c r="E32" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32.373125098290018</v>
+      </c>
+      <c r="C33" s="2">
+        <v>51.091688005054102</v>
+      </c>
+      <c r="D33" s="2">
+        <v>84.885698684110409</v>
+      </c>
+      <c r="E33" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2">
+        <v>32.074852233447757</v>
+      </c>
+      <c r="C34" s="2">
+        <v>52.040903504541767</v>
+      </c>
+      <c r="D34" s="2">
+        <v>85.834914183598102</v>
+      </c>
+      <c r="E34" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>28.12789657314811</v>
+      </c>
+      <c r="C35" s="2">
+        <v>48.093947844245641</v>
+      </c>
+      <c r="D35" s="2">
+        <v>84.000084190745866</v>
+      </c>
+      <c r="E35" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>27.829623708305849</v>
+      </c>
+      <c r="C36" s="2">
+        <v>49.043163343733333</v>
+      </c>
+      <c r="D36" s="2">
+        <v>84.949299690233559</v>
+      </c>
+      <c r="E36" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>23.882668048006199</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45.09620768343656</v>
+      </c>
+      <c r="D37" s="2">
+        <v>83.114469697381338</v>
+      </c>
+      <c r="E37" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>23.584395183163931</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46.045423182923223</v>
+      </c>
+      <c r="D38" s="2">
+        <v>84.063685196869017</v>
+      </c>
+      <c r="E38" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2">
+        <v>19.637439522864781</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42.098467522623572</v>
+      </c>
+      <c r="D39" s="2">
+        <v>82.228855204016796</v>
+      </c>
+      <c r="E39" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2">
+        <v>19.339166658022521</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43.04768302211022</v>
+      </c>
+      <c r="D40" s="2">
+        <v>83.178070703504474</v>
+      </c>
+      <c r="E40" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
+        <v>15.392210997723449</v>
+      </c>
+      <c r="C41" s="2">
+        <v>39.10072736181057</v>
+      </c>
+      <c r="D41" s="2">
+        <v>81.343240710652239</v>
+      </c>
+      <c r="E41" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2">
+        <v>15.09393813288119</v>
+      </c>
+      <c r="C42" s="2">
+        <v>40.049942861297232</v>
+      </c>
+      <c r="D42" s="2">
+        <v>82.292456210139932</v>
+      </c>
+      <c r="E42" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2">
+        <v>11.146982472582099</v>
+      </c>
+      <c r="C43" s="2">
+        <v>36.102987200997568</v>
+      </c>
+      <c r="D43" s="2">
+        <v>80.457626217287697</v>
+      </c>
+      <c r="E43" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10.84870960773984</v>
+      </c>
+      <c r="C44" s="2">
+        <v>37.05220270048423</v>
+      </c>
+      <c r="D44" s="2">
+        <v>81.406841716775389</v>
+      </c>
+      <c r="E44" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2">
+        <v>6.9017539474404836</v>
+      </c>
+      <c r="C45" s="2">
+        <v>33.10524704018458</v>
+      </c>
+      <c r="D45" s="2">
+        <v>79.572011723923168</v>
+      </c>
+      <c r="E45" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <v>6.6034810825982238</v>
+      </c>
+      <c r="C46" s="2">
+        <v>34.054462539671242</v>
+      </c>
+      <c r="D46" s="2">
+        <v>80.521227223410847</v>
+      </c>
+      <c r="E46" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.6565254222992039</v>
+      </c>
+      <c r="C47" s="2">
+        <v>30.107506879371591</v>
+      </c>
+      <c r="D47" s="2">
+        <v>78.686397230558612</v>
+      </c>
+      <c r="E47" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2.3582525574570719</v>
+      </c>
+      <c r="C48" s="2">
+        <v>31.05672237885825</v>
+      </c>
+      <c r="D48" s="2">
+        <v>79.635612730046304</v>
+      </c>
+      <c r="E48" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2.0006340812372701E-2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>27.1097667185586</v>
+      </c>
+      <c r="D49" s="2">
+        <v>77.800782737194069</v>
+      </c>
+      <c r="E49" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6.1860459763398345E-4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>28.058982218045251</v>
+      </c>
+      <c r="D50" s="2">
+        <v>78.749998236681762</v>
+      </c>
+      <c r="E50" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.9573662382405588E-2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>24.112026557745601</v>
+      </c>
+      <c r="D51" s="2">
+        <v>76.915168243829541</v>
+      </c>
+      <c r="E51" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.859261676668714E-4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>25.06124205723226</v>
+      </c>
+      <c r="D52" s="2">
+        <v>77.864383743317219</v>
+      </c>
+      <c r="E52" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2.030528870324053E-2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>21.114286396932901</v>
+      </c>
+      <c r="D53" s="2">
+        <v>76.029553750464999</v>
+      </c>
+      <c r="E53" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9.1755248850181135E-4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>22.063501896419549</v>
+      </c>
+      <c r="D54" s="2">
+        <v>76.978769249952677</v>
+      </c>
+      <c r="E54" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.9965767162144519E-2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>18.116546236120492</v>
+      </c>
+      <c r="D55" s="2">
+        <v>75.143939257100442</v>
+      </c>
+      <c r="E55" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.7803094740579736E-4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>19.06576173560715</v>
+      </c>
+      <c r="D56" s="2">
+        <v>76.093154756588135</v>
+      </c>
+      <c r="E56" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.9533088732177399E-2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>15.118806075308081</v>
+      </c>
+      <c r="D57" s="2">
+        <v>74.258324763735899</v>
+      </c>
+      <c r="E57" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.4535251743868531E-4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>16.068021574794731</v>
+      </c>
+      <c r="D58" s="2">
+        <v>75.207540263223592</v>
+      </c>
+      <c r="E58" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2.026471505301234E-2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>12.12106591449567</v>
+      </c>
+      <c r="D59" s="2">
+        <v>73.372710270371371</v>
+      </c>
+      <c r="E59" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8.7697883827362526E-4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>13.070281413982331</v>
+      </c>
+      <c r="D60" s="2">
+        <v>74.32192576985905</v>
+      </c>
+      <c r="E60" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.992519351191633E-2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>9.1233257536830905</v>
+      </c>
+      <c r="D61" s="2">
+        <v>72.487095777006829</v>
+      </c>
+      <c r="E61" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5.3745729717761127E-4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10.07254125317001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>73.436311276494507</v>
+      </c>
+      <c r="E62" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1.949251508194922E-2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>6.1255855928706531</v>
+      </c>
+      <c r="D63" s="2">
+        <v>71.601481283642272</v>
+      </c>
+      <c r="E63" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.047788672104993E-4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>7.0748010923575659</v>
+      </c>
+      <c r="D64" s="2">
+        <v>72.550696783129965</v>
+      </c>
+      <c r="E64" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2.0224141402784161E-2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3.1278454320585092</v>
+      </c>
+      <c r="D65" s="2">
+        <v>70.715866790277744</v>
+      </c>
+      <c r="E65" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2">
+        <v>8.3640518804543916E-4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4.0770609315452937</v>
+      </c>
+      <c r="D66" s="2">
+        <v>71.665082289765422</v>
+      </c>
+      <c r="E66" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.9884619861688151E-2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.130105271246341</v>
+      </c>
+      <c r="D67" s="2">
+        <v>69.830252296913201</v>
+      </c>
+      <c r="E67" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4.9688364694942528E-4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.07932077073315</v>
+      </c>
+      <c r="D68" s="2">
+        <v>70.77946779640088</v>
+      </c>
+      <c r="E68" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.9451941431721031E-2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2.023766555730213E-2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>68.944637803548659</v>
+      </c>
+      <c r="E69" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
+        <v>6.4205216982313206E-5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.96945316504410994</v>
+      </c>
+      <c r="D70" s="2">
+        <v>69.893853303036337</v>
+      </c>
+      <c r="E70" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2.0183567752555968E-2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.9631230773570311E-2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>68.059023310184102</v>
+      </c>
+      <c r="E71" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2">
+        <v>7.9583153781725307E-4</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.96884673026037815</v>
+      </c>
+      <c r="D72" s="2">
+        <v>69.008238809671795</v>
+      </c>
+      <c r="E72" s="2">
+        <v>99.981274572766594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.9844046211459961E-2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.9117952878709672E-2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>67.173408816819574</v>
+      </c>
+      <c r="E73" s="2">
+        <v>99.032059073280962</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>